--- a/Documentation/Worksheet in C  Users 86182 Desktop Tufts _2020 Spring ME94 Backlog ME 0094 Journal.xlsx
+++ b/Documentation/Worksheet in C  Users 86182 Desktop Tufts _2020 Spring ME94 Backlog ME 0094 Journal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\86182\Desktop\Tufts\_2020 Spring\ME 0094\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE87DDC8-1617-4F97-98B9-42FFFF7CCA30}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1CDE648-AA30-4721-9487-84326791D4FE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="0" windowWidth="21780" windowHeight="18300" xr2:uid="{E20BF628-1B9B-4ED0-8934-61788F8D56B3}"/>
+    <workbookView xWindow="22932" yWindow="2172" windowWidth="23256" windowHeight="12576" xr2:uid="{E20BF628-1B9B-4ED0-8934-61788F8D56B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -702,8 +702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98813FD6-378C-4A9E-9453-CA5446EA6510}">
   <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
